--- a/Dataset/Authors/PRUD_praef.xlsx
+++ b/Dataset/Authors/PRUD_praef.xlsx
@@ -5,155 +5,45 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A368A-6BA6-4CE7-9E3E-B64C53C821EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5D4B5-1B7B-4777-BDC9-6CD5494D6567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7CA25AD7-9E52-4172-B494-88205C6653D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRUD_praef" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Aurelius Prudentius Clemens</t>
   </si>
   <si>
+    <t>Praefatio</t>
+  </si>
+  <si>
+    <t>PRUD. praef.</t>
+  </si>
+  <si>
     <t>Poetry</t>
   </si>
   <si>
     <t>Christian literature</t>
   </si>
   <si>
-    <t>Nomina agentis</t>
-  </si>
-  <si>
-    <t>Nomina actionis</t>
-  </si>
-  <si>
-    <t>Nominal abstacts</t>
-  </si>
-  <si>
-    <t>Bahuvrīhi</t>
-  </si>
-  <si>
-    <t>Determinative compounds</t>
-  </si>
-  <si>
-    <t>Coordinative compounds</t>
-  </si>
-  <si>
-    <t>Juxtapositions</t>
-  </si>
-  <si>
-    <t>Grecisms</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
-  <si>
-    <t>1C</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>1E</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>1G</t>
-  </si>
-  <si>
-    <t>1H</t>
-  </si>
-  <si>
-    <t>1Z</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>4B</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>4D</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>6C</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Gi</t>
-  </si>
-  <si>
-    <t>Gr</t>
-  </si>
-  <si>
-    <t>Praefatio</t>
-  </si>
-  <si>
-    <t>PRUD. praef.</t>
-  </si>
-  <si>
     <t>quinquennium</t>
+  </si>
+  <si>
+    <t>Compounds</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
   </si>
 </sst>
 </file>
@@ -229,50 +119,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -588,282 +455,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5064FCF0-9028-48CC-AA77-CE47ABD65C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="27" width="4.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="40.77734375" style="5" customWidth="1"/>
+    <col min="2" max="28" width="8.88671875" style="5" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+    <row r="2" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
+    <row r="3" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:27" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="N4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" s="12">
-        <v>5</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
         <v>1</v>
       </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:X4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Y5" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>